--- a/medicine/Médecine vétérinaire/Score_corporel/Score_corporel.xlsx
+++ b/medicine/Médecine vétérinaire/Score_corporel/Score_corporel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le score corporel, score d'état corporel, note de condition corporelle ou note d'état corporel est une échelle numérique semi-quantitative qui évalue la masse graisseuse d'un animal d'après l'observation et la palpation de son corps.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'origine, le système a été développé au début des années 1980 par Don Henneke de l'Université A&amp;M du Texas dans le but de créer une échelle universelle pour évaluer le poids des chevaux[1], et a été publié pour la première fois en 1983[2].
-Par la suite, il a été adapté pour d'autres animaux d'élevage, en particulier les bovins[3]. L'obésité chez les chats et les chiens peut également être diagnostiquée avec cette méthode[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'origine, le système a été développé au début des années 1980 par Don Henneke de l'Université A&amp;M du Texas dans le but de créer une échelle universelle pour évaluer le poids des chevaux, et a été publié pour la première fois en 1983.
+Par la suite, il a été adapté pour d'autres animaux d'élevage, en particulier les bovins. L'obésité chez les chats et les chiens peut également être diagnostiquée avec cette méthode.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs échelles existent, mais la plupart des vétérinaires emploient des échelles de score corporel notées sur 5 ou sur 9, selon leur préférence[5],[6]. Ces échelles sont développées pour être employées sur des animaux n'ayant pas de condition médicale particulière[6].
-Sur l'échelle sur 9 points, chaque unité correspond à l'écart de proportion en masse graisseuse de 10 à 15 % par rapport au poids idéal[7]. Sur cette échelle, 1 correspond à un animal anorexique tandis que 9 correspond à un animal en obésité morbide. Le score 5 est considéré comme idéal[8].
-La palpation d'un chat en vue d'évaluer son score corporel s'opère en plaçant les mains de part et d'autre du thorax, sans appuyer. Le score se détermine suivant l'épaisseur de la couche graisseuse sur les côtes ressenties en amenant ses mains vers l'arrière de la cage thoracique[9]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs échelles existent, mais la plupart des vétérinaires emploient des échelles de score corporel notées sur 5 ou sur 9, selon leur préférence,. Ces échelles sont développées pour être employées sur des animaux n'ayant pas de condition médicale particulière.
+Sur l'échelle sur 9 points, chaque unité correspond à l'écart de proportion en masse graisseuse de 10 à 15 % par rapport au poids idéal. Sur cette échelle, 1 correspond à un animal anorexique tandis que 9 correspond à un animal en obésité morbide. Le score 5 est considéré comme idéal.
+La palpation d'un chat en vue d'évaluer son score corporel s'opère en plaçant les mains de part et d'autre du thorax, sans appuyer. Le score se détermine suivant l'épaisseur de la couche graisseuse sur les côtes ressenties en amenant ses mains vers l'arrière de la cage thoracique. 
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Intérêt</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'échelle de score corporel en 9 points présente l'avantage d'être fidèle aux mesures par scan Dexa, qui évalue la masse graisseuse[5]. L'association entre la note d'état corporel et la valeur du poids vif permet d'estimer le poids idéal de l'animal[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'échelle de score corporel en 9 points présente l'avantage d'être fidèle aux mesures par scan Dexa, qui évalue la masse graisseuse. L'association entre la note d'état corporel et la valeur du poids vif permet d'estimer le poids idéal de l'animal.
 </t>
         </is>
       </c>
@@ -607,10 +625,12 @@
           <t>Critères de notation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Différents systèmes d'évaluation du score corporel existent[7].
-Pour le cheval</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Différents systèmes d'évaluation du score corporel existent.
+</t>
         </is>
       </c>
     </row>
